--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3626454.124037065</v>
+        <v>3623912.492443385</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>175.6809662669678</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>26.60338682606188</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>149.4506622450107</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>176.0166538343218</v>
       </c>
     </row>
     <row r="4">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>165.1725371760942</v>
       </c>
       <c r="W4" t="n">
-        <v>127.7950465518485</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.2299344537583</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537569</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>349.2299344537583</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>12.53823624078099</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908711</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969022</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>184.2899900935053</v>
+        <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537569</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>240.2688891353458</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2299344537569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277713</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419586</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.32149302161173</v>
       </c>
       <c r="S6" t="n">
         <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>130.5980513664837</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>20.05283635457208</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.2498298584928</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573318</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>62.01797281971133</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>336.0400980334365</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>103.2789529957481</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>63.75107443719623</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9661877488788</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>241.7859926947189</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.98166197004282</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.40964990483307</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056961</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>125.2851635392055</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>36.43062059490413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>60.64713141731121</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>137.7610225486951</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>41.02686156550217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>10.63412424768206</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>226.3926032458673</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.8104557436824</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="C2" t="n">
-        <v>344.3906707271974</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="D2" t="n">
-        <v>344.3906707271974</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271974</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>192.4575684550912</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652804</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652804</v>
+        <v>388.8228542207792</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652804</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652804</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487954</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="X2" t="n">
-        <v>533.8104557436824</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="Y2" t="n">
-        <v>533.8104557436824</v>
+        <v>199.4030692042947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>599.1420837713301</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C3" t="n">
-        <v>599.1420837713301</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>303.6731161369638</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140238</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S3" t="n">
-        <v>599.1420837713301</v>
+        <v>571.6362168389229</v>
       </c>
       <c r="T3" t="n">
-        <v>599.1420837713301</v>
+        <v>571.6362168389229</v>
       </c>
       <c r="U3" t="n">
-        <v>599.1420837713301</v>
+        <v>571.6362168389229</v>
       </c>
       <c r="V3" t="n">
-        <v>599.1420837713301</v>
+        <v>571.6362168389229</v>
       </c>
       <c r="W3" t="n">
-        <v>599.1420837713301</v>
+        <v>382.2164318224384</v>
       </c>
       <c r="X3" t="n">
-        <v>599.1420837713301</v>
+        <v>192.7966468059539</v>
       </c>
       <c r="Y3" t="n">
-        <v>599.1420837713301</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.6395923767003</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>617.6395923767003</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>467.5229529643645</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>467.5229529643645</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>118.7527324484196</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M4" t="n">
-        <v>304.4030637430765</v>
+        <v>465.2530182692146</v>
       </c>
       <c r="N4" t="n">
-        <v>490.0533950377334</v>
+        <v>633.0454302264744</v>
       </c>
       <c r="O4" t="n">
-        <v>652.7915984742837</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846281</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846281</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846281</v>
+        <v>560.682563648794</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846281</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846281</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846281</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W4" t="n">
-        <v>617.6395923767003</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X4" t="n">
-        <v>617.6395923767003</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.6395923767003</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.2532135715738</v>
+        <v>400.3062901464529</v>
       </c>
       <c r="C5" t="n">
-        <v>152.4957040223244</v>
+        <v>400.3062901464529</v>
       </c>
       <c r="D5" t="n">
-        <v>152.4957040223244</v>
+        <v>400.3062901464529</v>
       </c>
       <c r="E5" t="n">
-        <v>152.4957040223244</v>
+        <v>47.54878059720211</v>
       </c>
       <c r="F5" t="n">
-        <v>145.5502032731209</v>
+        <v>40.60327984799864</v>
       </c>
       <c r="G5" t="n">
-        <v>132.8853181814229</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="H5" t="n">
-        <v>132.8853181814229</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874654</v>
+        <v>80.99020340874677</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620546</v>
+        <v>211.239630562055</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458687</v>
+        <v>409.7273242458698</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973859</v>
+        <v>662.2525653973879</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365789</v>
+        <v>923.477737336582</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477538</v>
+        <v>1156.809998477542</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.45268416974</v>
+        <v>1321.452684169745</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815028</v>
+        <v>1249.420751151496</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815028</v>
+        <v>1249.420751151496</v>
       </c>
       <c r="U5" t="n">
-        <v>1210.768232670073</v>
+        <v>995.7596473071641</v>
       </c>
       <c r="V5" t="n">
-        <v>1210.768232670073</v>
+        <v>995.7596473071641</v>
       </c>
       <c r="W5" t="n">
-        <v>858.0107231208233</v>
+        <v>995.7596473071641</v>
       </c>
       <c r="X5" t="n">
-        <v>858.0107231208233</v>
+        <v>753.0637996957037</v>
       </c>
       <c r="Y5" t="n">
-        <v>505.2532135715738</v>
+        <v>753.0637996957037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489.1240462713788</v>
+        <v>187.1758497617562</v>
       </c>
       <c r="C6" t="n">
-        <v>314.6710169902518</v>
+        <v>187.1758497617562</v>
       </c>
       <c r="D6" t="n">
-        <v>165.7366073290005</v>
+        <v>187.1758497617562</v>
       </c>
       <c r="E6" t="n">
-        <v>165.7366073290005</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="F6" t="n">
-        <v>165.7366073290005</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="G6" t="n">
-        <v>165.7366073290005</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="J6" t="n">
-        <v>165.5479665784359</v>
+        <v>40.71784159143142</v>
       </c>
       <c r="K6" t="n">
-        <v>265.5449014249426</v>
+        <v>332.4282120100593</v>
       </c>
       <c r="L6" t="n">
-        <v>446.3256618694555</v>
+        <v>513.2089724545726</v>
       </c>
       <c r="M6" t="n">
-        <v>676.6451506028679</v>
+        <v>743.5284611879856</v>
       </c>
       <c r="N6" t="n">
-        <v>927.4691557817731</v>
+        <v>994.3524663668913</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459971</v>
+        <v>1201.587633459976</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983956</v>
+        <v>1348.579058983961</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815028</v>
+        <v>1388.514189308355</v>
       </c>
       <c r="S6" t="n">
-        <v>1251.254262387111</v>
+        <v>1242.848713880438</v>
       </c>
       <c r="T6" t="n">
-        <v>1251.254262387111</v>
+        <v>1046.68430760345</v>
       </c>
       <c r="U6" t="n">
-        <v>1119.337038784602</v>
+        <v>818.5589840356644</v>
       </c>
       <c r="V6" t="n">
-        <v>1119.337038784602</v>
+        <v>583.4068758039216</v>
       </c>
       <c r="W6" t="n">
-        <v>865.0996820564008</v>
+        <v>563.1514855467781</v>
       </c>
       <c r="X6" t="n">
-        <v>865.0996820564008</v>
+        <v>563.1514855467781</v>
       </c>
       <c r="Y6" t="n">
-        <v>657.3393832914469</v>
+        <v>355.3911867818242</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="C7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="D7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="E7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="F7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="G7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874694</v>
+        <v>148.5233105874698</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208647</v>
+        <v>358.3569215208653</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014286</v>
+        <v>589.9861665014295</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750263</v>
+        <v>821.5424021750275</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767887</v>
+        <v>1019.405768767889</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612034</v>
+        <v>1165.191378612035</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049276</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049274</v>
+        <v>1059.927283950961</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049274</v>
+        <v>855.4770491322856</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049274</v>
+        <v>855.4770491322856</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049274</v>
+        <v>855.4770491322856</v>
       </c>
       <c r="V7" t="n">
-        <v>928.0062098433872</v>
+        <v>600.7925609263988</v>
       </c>
       <c r="W7" t="n">
-        <v>638.5890398064266</v>
+        <v>311.3753908894382</v>
       </c>
       <c r="X7" t="n">
-        <v>410.5994889084093</v>
+        <v>248.7309738998308</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.8069097648792</v>
+        <v>27.93839475630066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1171.597178657685</v>
+        <v>983.638880763154</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.597178657685</v>
+        <v>614.6763638227424</v>
       </c>
       <c r="D8" t="n">
-        <v>813.3314800509345</v>
+        <v>614.6763638227424</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>228.8881112244981</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>221.9426104752947</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918765</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1171.597178657685</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y8" t="n">
-        <v>1171.597178657685</v>
+        <v>983.638880763154</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
@@ -4887,22 +4887,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>870.3292415458918</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>432.4910877623397</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>263.5549048344328</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>263.5549048344328</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>115.6418112520397</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1349.048382530606</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1126.069901725341</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.34930177307</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="W10" t="n">
-        <v>834.9321317361096</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="X10" t="n">
-        <v>834.9321317361096</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y10" t="n">
-        <v>614.1395525925794</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="11">
@@ -5024,64 +5024,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.0424953278208</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.885660588918</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1143.093081445388</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5492,37 +5492,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561121</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561121</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718711</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703123</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>526.5658826424054</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2532.719182723414</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,19 +6783,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>135.2579373565599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368208</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>481.447947124485</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420919</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>186.6449060441816</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>145.8220995101048</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>116.4012961287067</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898912</v>
+        <v>41.92993463898887</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.6499349213341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>67.55889958092325</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>280.1079373569282</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>162.007309792134</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>44.73700564187214</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.8503182118945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.4223302771042</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112516275</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>15.00954930701842</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>10.85445046951727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>154.8900140445868</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>25.74504007796068</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>676943.8501781251</v>
+        <v>676943.8501781252</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427129</v>
+        <v>178997.5061427149</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731193</v>
+        <v>301519.870773118</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.708981578005478e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854462</v>
+        <v>49064.94472854447</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267307</v>
+        <v>41617.52445267357</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019511</v>
+        <v>73739.30240019479</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307133</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806964</v>
+        <v>229588.138980696</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26427,37 +26427,37 @@
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184279</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184273</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184285</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029187</v>
+        <v>69851.97930029199</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26485,7 +26485,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145823.8699921038</v>
+        <v>-145823.8699921032</v>
       </c>
       <c r="C6" t="n">
-        <v>301552.0569473677</v>
+        <v>301552.056947366</v>
       </c>
       <c r="D6" t="n">
-        <v>240376.8074601673</v>
+        <v>240376.8074601682</v>
       </c>
       <c r="E6" t="n">
-        <v>144574.49014521</v>
+        <v>144539.7522197741</v>
       </c>
       <c r="F6" t="n">
-        <v>652059.9317697558</v>
+        <v>652025.1938443203</v>
       </c>
       <c r="G6" t="n">
-        <v>652059.9317697563</v>
+        <v>652025.19384432</v>
       </c>
       <c r="H6" t="n">
-        <v>652059.9317697559</v>
+        <v>652025.1938443201</v>
       </c>
       <c r="I6" t="n">
-        <v>652059.9317697559</v>
+        <v>652025.1938443211</v>
       </c>
       <c r="J6" t="n">
-        <v>602994.9870412115</v>
+        <v>602960.2491157757</v>
       </c>
       <c r="K6" t="n">
-        <v>610442.407317083</v>
+        <v>610407.6693916467</v>
       </c>
       <c r="L6" t="n">
-        <v>578320.6293695609</v>
+        <v>578285.8914441259</v>
       </c>
       <c r="M6" t="n">
-        <v>519452.6380408295</v>
+        <v>519417.9001153936</v>
       </c>
       <c r="N6" t="n">
-        <v>652059.931769756</v>
+        <v>652025.1938443203</v>
       </c>
       <c r="O6" t="n">
-        <v>652059.9317697558</v>
+        <v>652025.1938443205</v>
       </c>
       <c r="P6" t="n">
-        <v>652059.9317697559</v>
+        <v>652025.1938443201</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955715</v>
+        <v>687.6696919955725</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537569</v>
+        <v>349.2299344537583</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826667</v>
+        <v>139.1997510826683</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219676</v>
+        <v>246.3952001219666</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874368</v>
+        <v>161.7043472874387</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462818</v>
+        <v>291.3548976462806</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663194</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874371</v>
+        <v>161.7043472874389</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462818</v>
+        <v>291.3548976462806</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874368</v>
+        <v>161.7043472874387</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462818</v>
+        <v>291.3548976462806</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>237.4168669630903</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988715</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.6436733987107</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>343.1277138524072</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3195824459388632</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>29.66604194298253</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917659</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378045</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>86.96510614773376</v>
       </c>
       <c r="W4" t="n">
-        <v>158.7279517847425</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>33.50390720972229</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725063</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>32.70043561850349</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>311.1628534397886</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.897454190871</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
-        <v>66.83450271238289</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365608584</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>129.4622115431232</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.00800420229666</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277711</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419579</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611872</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>95.24601896562382</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>231.6421468063475</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.58215032344447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>5.68693102405706</v>
+        <v>5.686931024056932</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.6471508178238</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>163.6916825693258</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>45.89027203882523</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>308.2687497772058</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>81.66997358573502</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.69627261285873</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354054</v>
+        <v>2.764501274354058</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597846</v>
+        <v>28.31194867597851</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795348</v>
+        <v>106.5784353795349</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342076</v>
+        <v>234.633590034208</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776148</v>
+        <v>351.6549289776153</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526278</v>
+        <v>436.2590348526284</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904217</v>
+        <v>485.4222343904224</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361801</v>
+        <v>493.2768736361809</v>
       </c>
       <c r="O5" t="n">
-        <v>465.787364089322</v>
+        <v>465.7873640893227</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787062</v>
+        <v>397.5387388787069</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909016</v>
+        <v>298.535036990902</v>
       </c>
       <c r="R5" t="n">
-        <v>173.655603175143</v>
+        <v>173.6556031751433</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934307</v>
+        <v>62.99607278934317</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848488</v>
+        <v>12.1016043284849</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483243</v>
+        <v>0.2211601019483246</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782928</v>
+        <v>1.47913858278293</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371933</v>
+        <v>14.28536473371935</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721922</v>
+        <v>50.92648190721929</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233642</v>
+        <v>139.7461588233644</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698204</v>
+        <v>238.8484438698207</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117054</v>
+        <v>321.1612085117059</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375864</v>
+        <v>374.779982137587</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721264</v>
+        <v>384.699293072127</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536204</v>
+        <v>351.9246960536209</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122943</v>
+        <v>282.4505948122947</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022558</v>
+        <v>188.8107426022561</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103126</v>
+        <v>91.8363411310314</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020041</v>
+        <v>27.47435043020045</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603113</v>
+        <v>5.961966480603122</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729789</v>
+        <v>0.09731174886729804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319883</v>
+        <v>1.240060100319885</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920769</v>
+        <v>11.02526161920771</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871067</v>
+        <v>37.29198919871073</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261571</v>
+        <v>87.67224909261584</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098918</v>
+        <v>144.072437109892</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966488</v>
+        <v>184.3631170966491</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619613</v>
+        <v>194.3850573619615</v>
       </c>
       <c r="N7" t="n">
-        <v>189.76301516986</v>
+        <v>189.7630151698603</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433959</v>
+        <v>175.2768585433961</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968702</v>
+        <v>149.9796324968704</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913313</v>
+        <v>103.8381234913314</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983763</v>
+        <v>55.75761141983772</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648377</v>
+        <v>21.6108655664838</v>
       </c>
       <c r="T7" t="n">
-        <v>5.29843861045768</v>
+        <v>5.298438610457688</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183563005</v>
+        <v>0.06763964183563015</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983566</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>166.2270851128133</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>689.3300812557329</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>518.0009690113193</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745958</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062405</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>169.4872848053129</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
-        <v>98.29368706161284</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752134</v>
+        <v>53.58768550752168</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326343</v>
+        <v>131.5650779326348</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826406</v>
+        <v>200.4926198826412</v>
       </c>
       <c r="M5" t="n">
-        <v>255.076001163149</v>
+        <v>255.0760011631496</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395892</v>
+        <v>263.86381003959</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676353</v>
+        <v>235.689152667636</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234367</v>
+        <v>166.3057431234373</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645209</v>
+        <v>76.22934711645254</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>138.9995674971064</v>
+        <v>12.90853215669773</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954614</v>
+        <v>294.6569398167958</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318312</v>
+        <v>182.6068287318317</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155681</v>
+        <v>232.6459482155686</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887931</v>
+        <v>253.3575809887937</v>
       </c>
       <c r="O6" t="n">
-        <v>276.8873511900993</v>
+        <v>209.3284516091765</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979641</v>
+        <v>148.4761873979645</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623428</v>
+        <v>48.82896851623457</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.802945284009</v>
+        <v>121.8029452840092</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569649</v>
+        <v>211.9531423569652</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238018</v>
+        <v>233.9689343238021</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490886</v>
+        <v>233.8951875490889</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574356</v>
+        <v>199.8619864574358</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617636</v>
+        <v>147.2581917617638</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.6760802396369</v>
+        <v>17.67608023963706</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>577.7882979947783</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>553.2044093850079</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35273,7 +35273,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,10 +35726,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316899</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>20.54758114884936</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>557.9883691723996</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>386.659256927986</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>199.0097390795101</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525775</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
